--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_8_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_8_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.37000000000053</v>
+        <v>25.8400000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07641153284208113</v>
+        <v>0.1580993143661855</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07641153284208113</v>
+        <v>0.1580993143661855</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.316191400546486</v>
+        <v>6.211053053633586</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.2420872224127386, 13.87447002350571]</t>
+          <t>[-1.8890579358675677, 14.31116404313474]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.09927904630065809</v>
+        <v>0.129498829695559</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09927904630065809</v>
+        <v>0.129498829695559</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.31452671976185</v>
+        <v>-1.345947603339772</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.100764048170816, 0.47171060864711656]</t>
+          <t>[-3.2831058361839283, 0.5912106295043849]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1012436202578906</v>
+        <v>0.1685460732069812</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1012436202578906</v>
+        <v>0.1685460732069812</v>
       </c>
       <c r="T2" t="n">
-        <v>9.494559236113298</v>
+        <v>14.59425843006088</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.681950797209247, 13.30716767501735]</t>
+          <t>[9.894928652718551, 19.29358820740321]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>8.729448057298583e-06</v>
+        <v>1.304788952438685e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>8.729448057298583e-06</v>
+        <v>1.304788952438685e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>9.345505505505699</v>
+        <v>5.535295295295427</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.904654654654697</v>
+        <v>-2.431391391391444</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.5956656656661</v>
+        <v>13.5019819819823</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.37000000000053</v>
+        <v>25.8400000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5022636189468371</v>
+        <v>0.3504961530110391</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5022636189468371</v>
+        <v>0.3504961530110391</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.147212546036509</v>
+        <v>4.679585287303848</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-6.917499574256433, 17.211924666329452]</t>
+          <t>[-4.199560941827546, 13.558731516435241]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3947381570256483</v>
+        <v>0.2941289401894216</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3947381570256483</v>
+        <v>0.2941289401894216</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.075526678047311</v>
+        <v>-1.094368612061309</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.213974594246124, 1.0629212381515023]</t>
+          <t>[-4.2328165282601224, 2.0440793041375036]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1895764503122757</v>
+        <v>0.486101362319991</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1895764503122757</v>
+        <v>0.486101362319991</v>
       </c>
       <c r="T3" t="n">
-        <v>13.84431138735975</v>
+        <v>14.10895883447912</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.6223134815829425, 20.066309293136563]</t>
+          <t>[9.378234946402282, 18.839682722555963]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.05384142284182e-05</v>
+        <v>3.049784143005496e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>5.05384142284182e-05</v>
+        <v>3.049784143005496e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>8.380480480480653</v>
+        <v>4.500660660660767</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.291821821821916</v>
+        <v>-8.406406406406603</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.05278278278322</v>
+        <v>17.40772772772814</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.37000000000053</v>
+        <v>25.8400000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07174730009538555</v>
+        <v>0.7762856826635559</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07174730009538555</v>
+        <v>0.7762856826635559</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>8.635405609803406</v>
+        <v>2.965858154876383</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.09577796268126448, 17.366589182288077]</t>
+          <t>[-7.686174733841618, 13.617891043594383]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0524587268519856</v>
+        <v>0.5777230341169122</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0524587268519856</v>
+        <v>0.5777230341169122</v>
       </c>
       <c r="P4" t="n">
-        <v>3.012658420559582</v>
+        <v>-2.540947811912465</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.54092132158058, 4.484395519538584]</t>
+          <t>[-5.6793957281112775, 0.5975001042863468]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0001588006487698301</v>
+        <v>0.1099431722083277</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0001588006487698301</v>
+        <v>0.1099431722083277</v>
       </c>
       <c r="T4" t="n">
-        <v>14.58314355768743</v>
+        <v>14.84796507018974</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.489123712006553, 19.677163403368304]</t>
+          <t>[9.106056631778387, 20.589873508601087]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.940166243918355e-07</v>
+        <v>4.584434522003633e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>6.940166243918355e-07</v>
+        <v>4.584434522003633e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>13.20560560560588</v>
+        <v>10.44980980981005</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.263083083083232</v>
+        <v>-2.457257257257314</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.14812812812852</v>
+        <v>23.35687687687742</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.37000000000053</v>
+        <v>25.8400000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7275131242272963</v>
+        <v>0.405243495459188</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7275131242272963</v>
+        <v>0.405243495459188</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.126919467080594</v>
+        <v>5.639188733654366</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-7.235487986796972, 13.48932692095816]</t>
+          <t>[-5.437409879842907, 16.71578734715164]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.5463965460950426</v>
+        <v>0.3106566583488117</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5463965460950426</v>
+        <v>0.3106566583488117</v>
       </c>
       <c r="P5" t="n">
-        <v>2.823974177100735</v>
+        <v>2.761079429281119</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.3144737390980774, 5.962422093299547]</t>
+          <t>[-0.37107901213573147, 5.89323787069797]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.07661679536629906</v>
+        <v>0.08258099832224097</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07661679536629906</v>
+        <v>0.08258099832224097</v>
       </c>
       <c r="T5" t="n">
-        <v>15.9105455909416</v>
+        <v>13.14011776535284</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[10.415798526797245, 21.405292655085944]</t>
+          <t>[7.268266952987604, 19.011968577718086]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.540935879011499e-07</v>
+        <v>4.650397632288694e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>5.540935879011499e-07</v>
+        <v>4.650397632288694e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>13.96746746746776</v>
+        <v>14.48488488488522</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.295165165165196</v>
+        <v>1.603683683683721</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.63976976977033</v>
+        <v>27.36608608608672</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.37000000000053</v>
+        <v>25.8400000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5961303254112333</v>
+        <v>0.5392333982332632</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5961303254112333</v>
+        <v>0.5392333982332632</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3.403064460679764</v>
+        <v>3.332402428360798</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.889574521800772, 11.695703443160301]</t>
+          <t>[-4.802345598787805, 11.467150455509401]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.4128640472240952</v>
+        <v>0.4136797266812013</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4128640472240952</v>
+        <v>0.4136797266812013</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.119579491852928</v>
+        <v>-2.301947770197927</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-6.239158983705855, 0.0]</t>
+          <t>[-5.440395686396739, 0.8365001460008861]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.05000000044112762</v>
+        <v>0.1465660324238016</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05000000044112762</v>
+        <v>0.1465660324238016</v>
       </c>
       <c r="T6" t="n">
-        <v>12.20658348921101</v>
+        <v>13.01358143246627</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.595714945313876, 16.81745203310815]</t>
+          <t>[8.83733460380007, 17.189828261132472]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.022800746821375e-06</v>
+        <v>1.213711855463373e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.022800746821375e-06</v>
+        <v>1.213711855463373e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>12.59611611611638</v>
+        <v>9.466906906907127</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-3.440160160160239</v>
       </c>
       <c r="Z6" t="n">
-        <v>25.19223223223275</v>
+        <v>22.37397397397449</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.37000000000053</v>
+        <v>25.8400000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5672546002932202</v>
+        <v>0.1383231008646533</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5672546002932202</v>
+        <v>0.1383231008646533</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3.378371000070721</v>
+        <v>6.206250229914595</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-5.5035299747755975, 12.26027197491704]</t>
+          <t>[-1.684592925221665, 14.097093385050854]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.4476193238677304</v>
+        <v>0.1201702280162251</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4476193238677304</v>
+        <v>0.1201702280162251</v>
       </c>
       <c r="P7" t="n">
-        <v>2.094395102393195</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.0126054398958102, 5.2013956446822]</t>
+          <t>[0.006289474781961957, 3.3271321596576584]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1813332839766555</v>
+        <v>0.0491744928082769</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1813332839766555</v>
+        <v>0.0491744928082769</v>
       </c>
       <c r="T7" t="n">
-        <v>11.33986369313078</v>
+        <v>15.71403495670311</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.735752753143187, 15.943974633118367]</t>
+          <t>[11.193956849830556, 20.234113063575663]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.04836727832236e-05</v>
+        <v>1.011974259945703e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>1.04836727832236e-05</v>
+        <v>1.011974259945703e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>16.91333333333369</v>
+        <v>18.98554554554599</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.368008008008102</v>
+        <v>12.15695695695724</v>
       </c>
       <c r="Z7" t="n">
-        <v>29.45865865865927</v>
+        <v>25.81413413413473</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.37000000000053</v>
+        <v>25.8400000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08103316485573875</v>
+        <v>0.5664248919867674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08103316485573875</v>
+        <v>0.5664248919867674</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.522428980335786</v>
+        <v>3.264437288220515</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.8001825110771463, 13.845040471748717]</t>
+          <t>[-4.984522730561938, 11.513397307002968]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.07953184880246233</v>
+        <v>0.4296019034773924</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07953184880246233</v>
+        <v>0.4296019034773924</v>
       </c>
       <c r="P8" t="n">
-        <v>1.717026615475502</v>
+        <v>1.163552834662886</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.22013161736865428, 3.2139216135823503]</t>
+          <t>[-1.9748950815359265, 4.302000750861698]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.02551315942647081</v>
+        <v>0.4591213460507415</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02551315942647081</v>
+        <v>0.4591213460507415</v>
       </c>
       <c r="T8" t="n">
-        <v>14.00890866014079</v>
+        <v>14.11698948884428</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.862405435450324, 18.15541188483125]</t>
+          <t>[9.740306550260382, 18.49367242742818]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.986843978230013e-08</v>
+        <v>5.705750005802201e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.986843978230013e-08</v>
+        <v>5.705750005802201e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>18.43705705705744</v>
+        <v>21.05481481481531</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.39295295295321</v>
+        <v>8.147747747747943</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.48116116116167</v>
+        <v>33.96188188188268</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.37000000000053</v>
+        <v>25.8400000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2588609630448693</v>
+        <v>0.0005250182590903485</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2588609630448693</v>
+        <v>0.0005250182590903485</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.982095098570319</v>
+        <v>9.525044768020772</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.696810832008614, 15.661001029149253]</t>
+          <t>[3.0032847415958344, 16.04680479444571]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.2196395831929061</v>
+        <v>0.005143629903815228</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2196395831929061</v>
+        <v>0.005143629903815228</v>
       </c>
       <c r="P9" t="n">
-        <v>2.23276354759635</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.8993948938205003, 5.3649219890132]</t>
+          <t>[1.7547634641672722, 2.962342622303888]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1579869130993461</v>
+        <v>5.375948575192524e-10</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1579869130993461</v>
+        <v>5.375948575192524e-10</v>
       </c>
       <c r="T9" t="n">
-        <v>13.52472079438176</v>
+        <v>12.71245572158915</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.319466622982404, 18.729974965781118]</t>
+          <t>[9.435002009369468, 15.989909433808842]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.215847969391007e-06</v>
+        <v>6.476570391100722e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>4.215847969391007e-06</v>
+        <v>6.476570391100722e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>16.35463463463497</v>
+        <v>16.14030030030068</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.707727727727807</v>
+        <v>13.6571771771775</v>
       </c>
       <c r="Z9" t="n">
-        <v>29.00154154154214</v>
+        <v>18.62342342342385</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.37000000000053</v>
+        <v>25.8400000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2897687126991463</v>
+        <v>0.2845357734230312</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2897687126991463</v>
+        <v>0.2845357734230312</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.985089294958586</v>
+        <v>4.953626870929625</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-4.292939320303542, 18.263117910220714]</t>
+          <t>[-3.0729390718255516, 12.980192813684802]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.218688330714031</v>
+        <v>0.2203012058965794</v>
       </c>
       <c r="O10" t="n">
-        <v>0.218688330714031</v>
+        <v>0.2203012058965794</v>
       </c>
       <c r="P10" t="n">
-        <v>1.389973926813502</v>
+        <v>1.364816027685656</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.7421845146033492, 4.522132368230353]</t>
+          <t>[-1.7170266154755023, 4.446658670846814]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.3761796833205606</v>
+        <v>0.3771592072405572</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3761796833205606</v>
+        <v>0.3771592072405572</v>
       </c>
       <c r="T10" t="n">
-        <v>13.9907924604966</v>
+        <v>12.25905801861461</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.6200243850599225, 20.36156053593328]</t>
+          <t>[7.765552043855955, 16.752563993373272]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>6.101435187400028e-05</v>
+        <v>1.743737388482103e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>6.101435187400028e-05</v>
+        <v>1.743737388482103e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>19.75761761761803</v>
+        <v>20.22710710710758</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.110710710710856</v>
+        <v>7.552832832833012</v>
       </c>
       <c r="Z10" t="n">
-        <v>32.4045245245252</v>
+        <v>32.90138138138214</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.37000000000053</v>
+        <v>25.8400000000006</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08011350170016895</v>
+        <v>0.2499636537715854</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08011350170016895</v>
+        <v>0.2499636537715854</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>7.669757178351131</v>
+        <v>5.562581191818542</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.3076134963789547, 16.647127853081216]</t>
+          <t>[-3.2138123487764174, 14.3389747324135]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0921689174311715</v>
+        <v>0.2083055415716437</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0921689174311715</v>
+        <v>0.2083055415716437</v>
       </c>
       <c r="P11" t="n">
-        <v>0.735868549489501</v>
+        <v>0.9371317425122712</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.3333951441077345, 3.8051322430867365]</t>
+          <t>[-2.144710900648887, 4.018974385673429]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.6315152018997758</v>
+        <v>0.5433215187009104</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6315152018997758</v>
+        <v>0.5433215187009104</v>
       </c>
       <c r="T11" t="n">
-        <v>13.59118064089703</v>
+        <v>12.58656242450114</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[8.93438946257163, 18.24797181922242]</t>
+          <t>[7.938019085176819, 17.23510576382545]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.731545115710389e-07</v>
+        <v>2.005832657303586e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.731545115710389e-07</v>
+        <v>2.005832657303586e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>22.3987387387392</v>
+        <v>21.9859859859865</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.00578578578599</v>
+        <v>9.311711711711929</v>
       </c>
       <c r="Z11" t="n">
-        <v>34.79169169169241</v>
+        <v>34.66026026026106</v>
       </c>
     </row>
     <row r="12">
@@ -1447,67 +1447,67 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9932025232766425</v>
+        <v>0.5111179153805054</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9932025232766425</v>
+        <v>0.5111179153805054</v>
       </c>
       <c r="J12" t="n">
-        <v>0.612938129863847</v>
+        <v>0.7586514069988188</v>
       </c>
       <c r="K12" t="n">
-        <v>0.612938129863847</v>
+        <v>0.7586514069988188</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3442336875601635</v>
+        <v>4.023805471381688</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-7.896784450972802, 8.585251826093128]</t>
+          <t>[-5.665940836621872, 13.713551779385249]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.9333257186494095</v>
+        <v>0.4073577814904579</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9333257186494095</v>
+        <v>0.4073577814904579</v>
       </c>
       <c r="P12" t="n">
         <v>-0.2893158399702314</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-3.427763756169044, 2.8491320762285812]</t>
+          <t>[-3.37115848313139, 2.792526803190927]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.8535388489776445</v>
+        <v>0.8508810472623045</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8535388489776445</v>
+        <v>0.8508810472623045</v>
       </c>
       <c r="T12" t="n">
-        <v>14.63842718113215</v>
+        <v>12.8156154918941</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[10.286830961462044, 18.990023400802265]</t>
+          <t>[7.717607906682506, 17.9136230771057]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.19660183375936e-08</v>
+        <v>7.452466077584319e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>2.19660183375936e-08</v>
+        <v>7.452466077584319e-06</v>
       </c>
       <c r="X12" t="n">
         <v>1.013013013013015</v>
       </c>
       <c r="Y12" t="n">
-        <v>-9.975975975975974</v>
+        <v>-9.777777777777775</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.002002002002</v>
+        <v>11.80380380380381</v>
       </c>
     </row>
     <row r="13">
@@ -1515,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1537,67 +1537,67 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.008853537255861577</v>
+        <v>0.6863960379138854</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008853537255861577</v>
+        <v>0.6863960379138854</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4264302272222132</v>
+        <v>0.8170806115913705</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4264302272222132</v>
+        <v>0.8170806115913705</v>
       </c>
       <c r="L13" t="n">
-        <v>10.12096170297534</v>
+        <v>2.31890633818519</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[1.9233448671251967, 18.318578538825477]</t>
+          <t>[-4.609893583763473, 9.247706260133853]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0166717279171209</v>
+        <v>0.5037129887054146</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0166717279171209</v>
+        <v>0.5037129887054146</v>
       </c>
       <c r="P13" t="n">
-        <v>0.723289599925578</v>
+        <v>0.2201316173686543</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.006289474781961957, 1.440289725069194]</t>
+          <t>[-2.8994478744842733, 3.339711109221582]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.04810632511510038</v>
+        <v>0.8876162985039522</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04810632511510038</v>
+        <v>0.8876162985039522</v>
       </c>
       <c r="T13" t="n">
-        <v>13.78088766187263</v>
+        <v>10.07723822526759</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[9.380271313748466, 18.1815040099968]</t>
+          <t>[6.1881215457158945, 13.96635490481928]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.090742145493095e-07</v>
+        <v>4.424668842872848e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.090742145493095e-07</v>
+        <v>4.424668842872848e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>19.46746746746747</v>
+        <v>21.22922922922923</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.95695695695696</v>
+        <v>10.30630630630631</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.97797797797798</v>
+        <v>32.15215215215215</v>
       </c>
     </row>
     <row r="14">
@@ -1627,67 +1627,67 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1185911405188769</v>
+        <v>0.1721655308903125</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1185911405188769</v>
+        <v>0.1721655308903125</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2781622009640758</v>
+        <v>0.2390898820107439</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2781622009640758</v>
+        <v>0.2390898820107439</v>
       </c>
       <c r="L14" t="n">
-        <v>8.030940025546711</v>
+        <v>7.678933226559876</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-2.292181580190416, 18.354061631283837]</t>
+          <t>[-3.121518204439771, 18.479384657559525]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1241475002036727</v>
+        <v>0.1590557542421693</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1241475002036727</v>
+        <v>0.1590557542421693</v>
       </c>
       <c r="P14" t="n">
         <v>1.025184389459732</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.0126319302276947, 4.063000709147159]</t>
+          <t>[-2.0189214050096567, 4.069290183929121]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.5001712854964737</v>
+        <v>0.5010527094723365</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5001712854964737</v>
+        <v>0.5010527094723365</v>
       </c>
       <c r="T14" t="n">
-        <v>16.05390277196544</v>
+        <v>17.85351615863399</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[10.795365728904034, 21.312439815026845]</t>
+          <t>[12.291523197766896, 23.415509119501085]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.876295903091574e-07</v>
+        <v>6.353526549318644e-08</v>
       </c>
       <c r="W14" t="n">
-        <v>1.876295903091574e-07</v>
+        <v>6.353526549318644e-08</v>
       </c>
       <c r="X14" t="n">
         <v>18.41041041041041</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.773773773773776</v>
+        <v>7.751751751751753</v>
       </c>
       <c r="Z14" t="n">
-        <v>29.04704704704704</v>
+        <v>29.06906906906907</v>
       </c>
     </row>
     <row r="15">
@@ -1717,67 +1717,67 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1393667413050952</v>
+        <v>0.0907286842502899</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1393667413050952</v>
+        <v>0.0907286842502899</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05064184539670202</v>
+        <v>0.007052213450955747</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05064184539670202</v>
+        <v>0.007052213450955747</v>
       </c>
       <c r="L15" t="n">
-        <v>6.885160399224062</v>
+        <v>7.829268166618856</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-2.1740814820014203, 15.944402280449545]</t>
+          <t>[-0.9392644923659361, 16.59780082560365]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1328317396060525</v>
+        <v>0.07883037917130387</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1328317396060525</v>
+        <v>0.07883037917130387</v>
       </c>
       <c r="P15" t="n">
-        <v>2.509500438002657</v>
+        <v>1.880552959806503</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.47171060864711656, 5.490711484652431]</t>
+          <t>[0.11950002085726918, 3.6416058987557376]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.09690616062800972</v>
+        <v>0.03690144543581297</v>
       </c>
       <c r="S15" t="n">
-        <v>0.09690616062800972</v>
+        <v>0.03690144543581297</v>
       </c>
       <c r="T15" t="n">
-        <v>15.20622686719755</v>
+        <v>12.9674048859787</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[10.249721026775656, 20.16273270761945]</t>
+          <t>[8.093244265267883, 17.841565506689506]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.691841182704934e-07</v>
+        <v>2.765629571355177e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>1.691841182704934e-07</v>
+        <v>2.765629571355177e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>13.21321321321321</v>
+        <v>15.41541541541541</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.774774774774775</v>
+        <v>9.249249249249244</v>
       </c>
       <c r="Z15" t="n">
-        <v>23.65165165165165</v>
+        <v>21.58158158158158</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_8_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_8_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.8400000000006</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1580993143661855</v>
+        <v>0.2903731392731148</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1580993143661855</v>
+        <v>0.2903731392731148</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.211053053633586</v>
+        <v>4.44950512649095</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.8890579358675677, 14.31116404313474]</t>
+          <t>[-2.5425579261786986, 11.441568179160598]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.129498829695559</v>
+        <v>0.2065108607049804</v>
       </c>
       <c r="O2" t="n">
-        <v>0.129498829695559</v>
+        <v>0.2065108607049804</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.345947603339772</v>
+        <v>-1.610105544182156</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.2831058361839283, 0.5912106295043849]</t>
+          <t>[-4.666790288215469, 1.4465791998511568]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1685460732069812</v>
+        <v>0.294384207822048</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1685460732069812</v>
+        <v>0.294384207822048</v>
       </c>
       <c r="T2" t="n">
-        <v>14.59425843006088</v>
+        <v>8.633531382014535</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.894928652718551, 19.29358820740321]</t>
+          <t>[4.5128033151463445, 12.754259448882726]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.304788952438685e-07</v>
+        <v>0.0001168971321412471</v>
       </c>
       <c r="W2" t="n">
-        <v>1.304788952438685e-07</v>
+        <v>0.0001168971321412471</v>
       </c>
       <c r="X2" t="n">
-        <v>5.535295295295427</v>
+        <v>6.649849849850007</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.431391391391444</v>
+        <v>-5.97447447447462</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5019819819823</v>
+        <v>19.27417417417463</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.8400000000006</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3504961530110391</v>
+        <v>0.8055503853932383</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3504961530110391</v>
+        <v>0.8055503853932383</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.679585287303848</v>
+        <v>2.173200935746022</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-4.199560941827546, 13.558731516435241]</t>
+          <t>[-6.632217408577027, 10.978619280069072]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2941289401894216</v>
+        <v>0.621548360978132</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2941289401894216</v>
+        <v>0.621548360978132</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.094368612061309</v>
+        <v>-1.94973718240808</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.2328165282601224, 2.0440793041375036]</t>
+          <t>[-5.088185098606892, 1.1887107337907326]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.486101362319991</v>
+        <v>0.2173105330002825</v>
       </c>
       <c r="S3" t="n">
-        <v>0.486101362319991</v>
+        <v>0.2173105330002825</v>
       </c>
       <c r="T3" t="n">
-        <v>14.10895883447912</v>
+        <v>11.99392736913191</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.378234946402282, 18.839682722555963]</t>
+          <t>[7.2393334477379465, 16.748521290525872]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.049784143005496e-07</v>
+        <v>7.026469973636651e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>3.049784143005496e-07</v>
+        <v>7.026469973636651e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>4.500660660660767</v>
+        <v>8.052552552552743</v>
       </c>
       <c r="Y3" t="n">
-        <v>-8.406406406406603</v>
+        <v>-4.909459459459576</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.40772772772814</v>
+        <v>21.01456456456506</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.8400000000006</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7762856826635559</v>
+        <v>0.4801115500673202</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7762856826635559</v>
+        <v>0.4801115500673202</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2.965858154876383</v>
+        <v>4.556617724586782</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-7.686174733841618, 13.617891043594383]</t>
+          <t>[-5.561938745001986, 14.67517419417555]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.5777230341169122</v>
+        <v>0.3692398775246648</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5777230341169122</v>
+        <v>0.3692398775246648</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.540947811912465</v>
+        <v>-2.301947770197926</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.6793957281112775, 0.5975001042863468]</t>
+          <t>[-5.434106211614778, 0.8302106712189259]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1099431722083277</v>
+        <v>0.1457757359558227</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1099431722083277</v>
+        <v>0.1457757359558227</v>
       </c>
       <c r="T4" t="n">
-        <v>14.84796507018974</v>
+        <v>14.518707184323</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.106056631778387, 20.589873508601087]</t>
+          <t>[9.293723391907562, 19.743690976738428]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.584434522003633e-06</v>
+        <v>1.234697777130478e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>4.584434522003633e-06</v>
+        <v>1.234697777130478e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>10.44980980981005</v>
+        <v>9.507207207207433</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.457257257257314</v>
+        <v>-3.428828828828916</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.35687687687742</v>
+        <v>22.44324324324378</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.8400000000006</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.405243495459188</v>
+        <v>0.1300577100467627</v>
       </c>
       <c r="I5" t="n">
-        <v>0.405243495459188</v>
+        <v>0.1300577100467627</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.639188733654366</v>
+        <v>7.511070896113</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-5.437409879842907, 16.71578734715164]</t>
+          <t>[-1.3198235233083055, 16.341965315534306]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.3106566583488117</v>
+        <v>0.0935796661620214</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3106566583488117</v>
+        <v>0.0935796661620214</v>
       </c>
       <c r="P5" t="n">
-        <v>2.761079429281119</v>
+        <v>-2.905737349266235</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.37107901213573147, 5.89323787069797]</t>
+          <t>[-4.691948187343314, -1.1195265111891568]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.08258099832224097</v>
+        <v>0.002028829536206089</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08258099832224097</v>
+        <v>0.002028829536206089</v>
       </c>
       <c r="T5" t="n">
-        <v>13.14011776535284</v>
+        <v>14.02103190487767</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.268266952987604, 19.011968577718086]</t>
+          <t>[9.059641713464039, 18.9824220962913]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.650397632288694e-05</v>
+        <v>8.930367654258475e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>4.650397632288694e-05</v>
+        <v>8.930367654258475e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>14.48488488488522</v>
+        <v>12.00090090090119</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.603683683683721</v>
+        <v>4.623723723723838</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.36608608608672</v>
+        <v>19.37807807807854</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8400000000006</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5392333982332632</v>
+        <v>0.2552379056660252</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5392333982332632</v>
+        <v>0.2552379056660252</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3.332402428360798</v>
+        <v>5.134620808479324</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.802345598787805, 11.467150455509401]</t>
+          <t>[-3.0101471032945124, 13.279388720253161]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.4136797266812013</v>
+        <v>0.2107078196531635</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4136797266812013</v>
+        <v>0.2107078196531635</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.301947770197927</v>
+        <v>2.735921530153274</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.440395686396739, 0.8365001460008861]</t>
+          <t>[-0.38994743648161645, 5.8617904967881636]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1465660324238016</v>
+        <v>0.08471667090891133</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1465660324238016</v>
+        <v>0.08471667090891133</v>
       </c>
       <c r="T6" t="n">
-        <v>13.01358143246627</v>
+        <v>9.683622385351509</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.83733460380007, 17.189828261132472]</t>
+          <t>[5.340922315636706, 14.02632245506631]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.213711855463373e-07</v>
+        <v>4.898059949942635e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>1.213711855463373e-07</v>
+        <v>4.898059949942635e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>9.466906906907127</v>
+        <v>14.6504504504508</v>
       </c>
       <c r="Y6" t="n">
-        <v>-3.440160160160239</v>
+        <v>1.740390390390431</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.37397397397449</v>
+        <v>27.56051051051117</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.8400000000006</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1383231008646533</v>
+        <v>0.6893124982598138</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1383231008646533</v>
+        <v>0.6893124982598138</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.206250229914595</v>
+        <v>3.352928904671168</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.684592925221665, 14.097093385050854]</t>
+          <t>[-6.892050895532715, 13.59790870487505]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1201702280162251</v>
+        <v>0.5131481789813002</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1201702280162251</v>
+        <v>0.5131481789813002</v>
       </c>
       <c r="P7" t="n">
-        <v>1.66671081721981</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.006289474781961957, 3.3271321596576584]</t>
+          <t>[-1.515763422452732, 4.723395561253122]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0491744928082769</v>
+        <v>0.3059790625640266</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0491744928082769</v>
+        <v>0.3059790625640266</v>
       </c>
       <c r="T7" t="n">
-        <v>15.71403495670311</v>
+        <v>14.65207053831293</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[11.193956849830556, 20.234113063575663]</t>
+          <t>[8.916624510765597, 20.387516565860256]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.011974259945703e-08</v>
+        <v>5.661522551658749e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.011974259945703e-08</v>
+        <v>5.661522551658749e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>18.98554554554599</v>
+        <v>19.32612612612659</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.15695695695724</v>
+        <v>6.442042042042196</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.81413413413473</v>
+        <v>32.21021021021097</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.8400000000006</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5664248919867674</v>
+        <v>0.1310519955252564</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5664248919867674</v>
+        <v>0.1310519955252564</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>3.264437288220515</v>
+        <v>6.05223793748879</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-4.984522730561938, 11.513397307002968]</t>
+          <t>[-1.9769942325688916, 14.081470107546473]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.4296019034773924</v>
+        <v>0.1359635007141216</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4296019034773924</v>
+        <v>0.1359635007141216</v>
       </c>
       <c r="P8" t="n">
-        <v>1.163552834662886</v>
+        <v>2.094395102393196</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.9748950815359265, 4.302000750861698]</t>
+          <t>[-0.8868159442565773, 5.075606149042969]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.4591213460507415</v>
+        <v>0.1639599795438618</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4591213460507415</v>
+        <v>0.1639599795438618</v>
       </c>
       <c r="T8" t="n">
-        <v>14.11698948884428</v>
+        <v>12.53502112593436</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.740306550260382, 18.49367242742818]</t>
+          <t>[8.182141790265078, 16.88790046160365]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.705750005802201e-08</v>
+        <v>6.17957108151046e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>5.705750005802201e-08</v>
+        <v>6.17957108151046e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>21.05481481481531</v>
+        <v>17.30000000000041</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.147747747747943</v>
+        <v>4.987387387387507</v>
       </c>
       <c r="Z8" t="n">
-        <v>33.96188188188268</v>
+        <v>29.61261261261331</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.8400000000006</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0005250182590903485</v>
+        <v>0.1229780497638195</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0005250182590903485</v>
+        <v>0.1229780497638195</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>9.525044768020772</v>
+        <v>5.535153572855306</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[3.0032847415958344, 16.04680479444571]</t>
+          <t>[-1.2755492071809815, 12.345856352891593]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.005143629903815228</v>
+        <v>0.1086289984316706</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005143629903815228</v>
+        <v>0.1086289984316706</v>
       </c>
       <c r="P9" t="n">
-        <v>2.35855304323558</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.7547634641672722, 2.962342622303888]</t>
+          <t>[0.044026323473730145, 3.239079512710198]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>5.375948575192524e-10</v>
+        <v>0.04425905419502674</v>
       </c>
       <c r="S9" t="n">
-        <v>5.375948575192524e-10</v>
+        <v>0.04425905419502674</v>
       </c>
       <c r="T9" t="n">
-        <v>12.71245572158915</v>
+        <v>10.91415372112777</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.435002009369468, 15.989909433808842]</t>
+          <t>[6.999722042874621, 14.828585399380911]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.476570391100722e-10</v>
+        <v>1.157211940272518e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>6.476570391100722e-10</v>
+        <v>1.157211940272518e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>16.14030030030068</v>
+        <v>19.17027027027073</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.6571771771775</v>
+        <v>12.57237237237267</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.62342342342385</v>
+        <v>25.76816816816878</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.8400000000006</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2845357734230312</v>
+        <v>0.3049223401894547</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2845357734230312</v>
+        <v>0.3049223401894547</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.953626870929625</v>
+        <v>5.893107583054872</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-3.0729390718255516, 12.980192813684802]</t>
+          <t>[-4.168826097139677, 15.955041263249422]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2203012058965794</v>
+        <v>0.2443475190500517</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2203012058965794</v>
+        <v>0.2443475190500517</v>
       </c>
       <c r="P10" t="n">
-        <v>1.364816027685656</v>
+        <v>0.8490790955648082</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.7170266154755023, 4.446658670846814]</t>
+          <t>[-2.276789871070081, 3.9749480621996973]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.3771592072405572</v>
+        <v>0.5870196469581868</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3771592072405572</v>
+        <v>0.5870196469581868</v>
       </c>
       <c r="T10" t="n">
-        <v>12.25905801861461</v>
+        <v>14.1554333195086</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.765552043855955, 16.752563993373272]</t>
+          <t>[8.869052250684692, 19.441814388332503]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.743737388482103e-06</v>
+        <v>2.45905764129084e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.743737388482103e-06</v>
+        <v>2.45905764129084e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>20.22710710710758</v>
+        <v>22.44324324324378</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.552832832833012</v>
+        <v>9.533183183183414</v>
       </c>
       <c r="Z10" t="n">
-        <v>32.90138138138214</v>
+        <v>35.35330330330414</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.8400000000006</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2499636537715854</v>
+        <v>0.0763070302824892</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2499636537715854</v>
+        <v>0.0763070302824892</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.562581191818542</v>
+        <v>6.918833765003714</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-3.2138123487764174, 14.3389747324135]</t>
+          <t>[-0.964359865571156, 14.802027395578584]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.2083055415716437</v>
+        <v>0.08388846577109543</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2083055415716437</v>
+        <v>0.08388846577109543</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9371317425122712</v>
+        <v>0.7107106503616549</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.144710900648887, 4.018974385673429]</t>
+          <t>[-2.4277372658371577, 3.8491585665604675]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.5433215187009104</v>
+        <v>0.6505120174666428</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5433215187009104</v>
+        <v>0.6505120174666428</v>
       </c>
       <c r="T11" t="n">
-        <v>12.58656242450114</v>
+        <v>12.86426903107595</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.938019085176819, 17.23510576382545]</t>
+          <t>[8.752358223640101, 16.976179838511804]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.005832657303586e-06</v>
+        <v>1.11388271939461e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>2.005832657303586e-06</v>
+        <v>1.11388271939461e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>21.9859859859865</v>
+        <v>23.01471471471526</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.311711711711929</v>
+        <v>10.05270270270294</v>
       </c>
       <c r="Z11" t="n">
-        <v>34.66026026026106</v>
+        <v>35.97672672672758</v>
       </c>
     </row>
     <row r="12">
@@ -1441,73 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5111179153805054</v>
+        <v>0.5068943213327781</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5111179153805054</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7586514069988188</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.7586514069988188</v>
-      </c>
+        <v>0.5068943213327781</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.023805471381688</v>
+        <v>4.493767191687406</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-5.665940836621872, 13.713551779385249]</t>
+          <t>[-6.364097996634343, 15.351632380009157]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.4073577814904579</v>
+        <v>0.4089199891392001</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4073577814904579</v>
+        <v>0.4089199891392001</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.2893158399702314</v>
+        <v>0.5849211547224229</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-3.37115848313139, 2.792526803190927]</t>
+          <t>[-2.5346583371305056, 3.7045006465753514]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.8508810472623045</v>
+        <v>0.7074701888847259</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8508810472623045</v>
+        <v>0.7074701888847259</v>
       </c>
       <c r="T12" t="n">
-        <v>12.8156154918941</v>
+        <v>13.93659197779729</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[7.717607906682506, 17.9136230771057]</t>
+          <t>[8.464486126855384, 19.4086978287392]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>7.452466077584319e-06</v>
+        <v>5.967734832967864e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>7.452466077584319e-06</v>
+        <v>5.967734832967864e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>1.013013013013015</v>
+        <v>20.39633633633641</v>
       </c>
       <c r="Y12" t="n">
-        <v>-9.777777777777775</v>
+        <v>9.230130130130163</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.80380380380381</v>
+        <v>31.56254254254266</v>
       </c>
     </row>
     <row r="13">
@@ -1531,73 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6863960379138854</v>
+        <v>0.5732568205695712</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6863960379138854</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.8170806115913705</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.8170806115913705</v>
-      </c>
+        <v>0.5732568205695712</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>2.31890633818519</v>
+        <v>3.719855001571347</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-4.609893583763473, 9.247706260133853]</t>
+          <t>[-5.981840482741705, 13.4215504858844]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.5037129887054146</v>
+        <v>0.4440011004437747</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5037129887054146</v>
+        <v>0.4440011004437747</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2201316173686543</v>
+        <v>0.7736053981812701</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-2.8994478744842733, 3.339711109221582]</t>
+          <t>[-2.3648425180175416, 3.9120533143800817]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.8876162985039522</v>
+        <v>0.6219848030444899</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8876162985039522</v>
+        <v>0.6219848030444899</v>
       </c>
       <c r="T13" t="n">
-        <v>10.07723822526759</v>
+        <v>13.46156438665427</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.1881215457158945, 13.96635490481928]</t>
+          <t>[8.499575609712661, 18.423553163595873]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.424668842872848e-06</v>
+        <v>1.934648264700911e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>4.424668842872848e-06</v>
+        <v>1.934648264700911e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>21.22922922922923</v>
+        <v>19.72096096096103</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.30630630630631</v>
+        <v>8.48721721721725</v>
       </c>
       <c r="Z13" t="n">
-        <v>32.15215215215215</v>
+        <v>30.95470470470481</v>
       </c>
     </row>
     <row r="14">
@@ -1621,73 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1721655308903125</v>
+        <v>0.5285771222488815</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1721655308903125</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.2390898820107439</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.2390898820107439</v>
-      </c>
+        <v>0.5285771222488815</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>7.678933226559876</v>
+        <v>4.605558682518508</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-3.121518204439771, 18.479384657559525]</t>
+          <t>[-5.430634523333815, 14.64175188837083]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1590557542421693</v>
+        <v>0.3602798341798916</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1590557542421693</v>
+        <v>0.3602798341798916</v>
       </c>
       <c r="P14" t="n">
-        <v>1.025184389459732</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.0189214050096567, 4.069290183929121]</t>
+          <t>[-1.496894998106848, 4.75484293516293]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.5010527094723365</v>
+        <v>0.2995050374659174</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5010527094723365</v>
+        <v>0.2995050374659174</v>
       </c>
       <c r="T14" t="n">
-        <v>17.85351615863399</v>
+        <v>15.55814900630546</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[12.291523197766896, 23.415509119501085]</t>
+          <t>[9.94221951597125, 21.174078496639673]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>6.353526549318644e-08</v>
+        <v>1.307226809910134e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>6.353526549318644e-08</v>
+        <v>1.307226809910134e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>18.41041041041041</v>
+        <v>16.65925925925931</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.751751751751753</v>
+        <v>5.470540540540558</v>
       </c>
       <c r="Z14" t="n">
-        <v>29.06906906906907</v>
+        <v>27.84797797797807</v>
       </c>
     </row>
     <row r="15">
@@ -1711,73 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0907286842502899</v>
+        <v>0.2324959043878785</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0907286842502899</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.007052213450955747</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.007052213450955747</v>
-      </c>
+        <v>0.2324959043878785</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>7.829268166618856</v>
+        <v>6.099600417491267</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.9392644923659361, 16.59780082560365]</t>
+          <t>[-3.2045611039240818, 15.403761938906616]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.07883037917130387</v>
+        <v>0.1933777933263587</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07883037917130387</v>
+        <v>0.1933777933263587</v>
       </c>
       <c r="P15" t="n">
-        <v>1.880552959806503</v>
+        <v>1.088079137279347</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.11950002085726918, 3.6416058987557376]</t>
+          <t>[-2.0503687789194647, 4.22652705347816]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.03690144543581297</v>
+        <v>0.4885973320348178</v>
       </c>
       <c r="S15" t="n">
-        <v>0.03690144543581297</v>
+        <v>0.4885973320348178</v>
       </c>
       <c r="T15" t="n">
-        <v>12.9674048859787</v>
+        <v>13.43568639556642</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[8.093244265267883, 17.841565506689506]</t>
+          <t>[8.538029100162202, 18.333343690970633]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.765629571355177e-06</v>
+        <v>1.572810611527586e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>2.765629571355177e-06</v>
+        <v>1.572810611527586e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>15.41541541541541</v>
+        <v>18.5953353353354</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.249249249249244</v>
+        <v>7.361591591591619</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.58158158158158</v>
+        <v>29.82907907907918</v>
       </c>
     </row>
   </sheetData>
